--- a/Datasets/TestSets/test2/three-way.xlsx
+++ b/Datasets/TestSets/test2/three-way.xlsx
@@ -71,19 +71,19 @@
     <t>Class</t>
   </si>
   <si>
-    <t>8uo6_0</t>
+    <t>4gxy_0</t>
   </si>
   <si>
     <t>Non-coaxial</t>
+  </si>
+  <si>
+    <t>Coaxial</t>
   </si>
   <si>
     <t>4p9r_0</t>
   </si>
   <si>
     <t>4p9r_1</t>
-  </si>
-  <si>
-    <t>Coaxial</t>
   </si>
   <si>
     <t>4qlm_0</t>
@@ -101,7 +101,7 @@
     <t>6ol3_0</t>
   </si>
   <si>
-    <t>4gxy_0</t>
+    <t>8uo6_0</t>
   </si>
 </sst>
 </file>
@@ -118,11 +118,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -132,7 +133,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,14 +141,14 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,7 +164,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,7 +195,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,7 +203,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,7 +211,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,14 +219,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,42 +234,42 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1003,6 +1004,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1266,7 +1274,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="J1" sqref="H$1:H$1048576 J$1:J$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -1320,37 +1328,37 @@
         <v>14</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
         <v>3</v>
       </c>
-      <c r="D2" s="1">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
       <c r="H2" s="1">
-        <v>6.6</v>
+        <v>-3.1</v>
       </c>
       <c r="I2" s="1">
-        <v>-20.04</v>
+        <v>-18.5</v>
       </c>
       <c r="J2" s="1">
-        <v>2.16</v>
+        <v>-0.34</v>
       </c>
       <c r="K2" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M2" s="1">
         <v>1</v>
@@ -1364,37 +1372,37 @@
         <v>14</v>
       </c>
       <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>5.9</v>
+        <v>8.1</v>
       </c>
       <c r="I3" s="1">
-        <v>2.16</v>
+        <v>-0.34</v>
       </c>
       <c r="J3" s="1">
-        <v>-9.61</v>
+        <v>2.46</v>
       </c>
       <c r="K3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M3" s="1">
         <v>1</v>
@@ -1408,17 +1416,17 @@
         <v>14</v>
       </c>
       <c r="B4" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
@@ -1426,30 +1434,30 @@
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>-3.4</v>
+        <v>-0.8</v>
       </c>
       <c r="I4" s="1">
-        <v>-9.61</v>
+        <v>2.46</v>
       </c>
       <c r="J4" s="1">
-        <v>-20.04</v>
+        <v>-18.5</v>
       </c>
       <c r="K4" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L4" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -1470,7 +1478,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="1">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I5" s="1">
         <v>-2.18</v>
@@ -1493,7 +1501,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -1514,7 +1522,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="1">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I6" s="1">
         <v>-5.02</v>
@@ -1537,7 +1545,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
@@ -1558,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I7" s="1">
         <v>-11.45</v>
@@ -1581,7 +1589,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -1602,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>5.7</v>
+        <v>8.1</v>
       </c>
       <c r="I8" s="1">
         <v>-2.05</v>
@@ -1625,7 +1633,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1">
         <v>6</v>
@@ -1664,12 +1672,12 @@
         <v>1</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -1734,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I11" s="1">
         <v>-5.85</v>
@@ -1778,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I12" s="1">
         <v>-8.96</v>
@@ -1796,7 +1804,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1822,7 +1830,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="1">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I13" s="1">
         <v>-5.49</v>
@@ -1866,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I14" s="1">
         <v>-2.43</v>
@@ -1884,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1954,7 +1962,7 @@
         <v>2</v>
       </c>
       <c r="H16" s="1">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I16" s="1">
         <v>-0.96</v>
@@ -1998,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I17" s="1">
         <v>0.83</v>
@@ -2042,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I18" s="1">
         <v>-2.85</v>
@@ -2060,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2086,7 +2094,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="1">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I19" s="1">
         <v>-5.85</v>
@@ -2130,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I20" s="1">
         <v>-0.96</v>
@@ -2148,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2174,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I21" s="1">
         <v>-2.16</v>
@@ -2218,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>5.7</v>
+        <v>8.1</v>
       </c>
       <c r="I22" s="1">
         <v>-5.4</v>
@@ -2280,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2306,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>-3.1</v>
+        <v>-2.6</v>
       </c>
       <c r="I24" s="1">
         <v>-23.04</v>
@@ -2350,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I25" s="1">
         <v>-9.83</v>
@@ -2376,13 +2384,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -2391,22 +2399,22 @@
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>-3.4</v>
+        <v>8.1</v>
       </c>
       <c r="I26" s="1">
-        <v>-18.5</v>
+        <v>-20.04</v>
       </c>
       <c r="J26" s="1">
-        <v>-0.34</v>
+        <v>2.16</v>
       </c>
       <c r="K26" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L26" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M26" s="1">
         <v>1</v>
@@ -2420,37 +2428,37 @@
         <v>24</v>
       </c>
       <c r="B27" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>6</v>
+        <v>8.3</v>
       </c>
       <c r="I27" s="1">
-        <v>-0.34</v>
+        <v>2.16</v>
       </c>
       <c r="J27" s="1">
-        <v>2.46</v>
+        <v>-9.61</v>
       </c>
       <c r="K27" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M27" s="1">
         <v>1</v>
@@ -2464,16 +2472,16 @@
         <v>24</v>
       </c>
       <c r="B28" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -2482,25 +2490,25 @@
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>-0.8</v>
+        <v>-3.4</v>
       </c>
       <c r="I28" s="1">
-        <v>2.46</v>
+        <v>-9.61</v>
       </c>
       <c r="J28" s="1">
-        <v>-18.5</v>
+        <v>-20.04</v>
       </c>
       <c r="K28" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L28" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M28" s="1">
         <v>1</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
